--- a/regionseng/6/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/6/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,7 +519,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -553,7 +553,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="15">
         <v>2006</v>
@@ -600,8 +600,14 @@
       <c r="P3" s="16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="16">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -650,8 +656,14 @@
       <c r="P4" s="2">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -700,8 +712,14 @@
       <c r="P5" s="3">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -750,8 +768,14 @@
       <c r="P6" s="4">
         <v>1725</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="4">
+        <v>1745</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -800,8 +824,14 @@
       <c r="P7" s="4">
         <v>1581</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="4">
+        <v>1691</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1371.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -850,8 +880,14 @@
       <c r="P8" s="3">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <v>388</v>
+      </c>
+      <c r="R8" s="3">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -900,8 +936,14 @@
       <c r="P9" s="3">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -950,8 +992,14 @@
       <c r="P10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>7.9255699999999996</v>
+      </c>
+      <c r="R10" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1000,8 +1048,14 @@
       <c r="P11" s="5">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="R11" s="5">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1050,8 +1104,14 @@
       <c r="P12" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1100,8 +1160,14 @@
       <c r="P13" s="3">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="R13" s="3">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1150,8 +1216,14 @@
       <c r="P14" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1167,7 +1239,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>

--- a/regionseng/6/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/6/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,7 +519,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -553,7 +553,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" s="15">
         <v>2006</v>
@@ -606,8 +606,11 @@
       <c r="R3" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -662,8 +665,11 @@
       <c r="R4" s="2">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -718,8 +724,11 @@
       <c r="R5" s="3">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -774,8 +783,11 @@
       <c r="R6" s="4">
         <v>1757</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="4">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -830,8 +842,11 @@
       <c r="R7" s="4">
         <v>1371.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -886,8 +901,11 @@
       <c r="R8" s="3">
         <v>487.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3">
+        <v>683.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -942,8 +960,11 @@
       <c r="R9" s="3">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1019,11 @@
       <c r="R10" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1078,11 @@
       <c r="R11" s="5">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1110,8 +1137,11 @@
       <c r="R12" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1166,8 +1196,11 @@
       <c r="R13" s="3">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="R14" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1239,7 +1275,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
